--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>991488.8204323049</v>
+        <v>989601.2389159027</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>134.1282878322213</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>161.5519252761216</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>73.1454594681539</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.9228252524073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>252.1445499962345</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>165.1859401286777</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>16.30528751750386</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>86.13065206326471</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>154.8229679689707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.9368849988958</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113169</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>88.9156920245631</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>4.88845779080084</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>61.47226067794314</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>95.91513413937329</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>11.79729717122498</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0.8811370504496381</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>21.13333448790789</v>
+        <v>221.2446350430718</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.07013494900218</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>168.7457110392515</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,10 +2615,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>89.77928001600176</v>
       </c>
       <c r="I28" t="n">
-        <v>77.89561362600439</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>43.21861285489506</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>128.5465569951259</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789464</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>993.1781615428677</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>993.1781615428677</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>607.3899089446234</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2533.965328113049</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2533.965328113049</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2280.203542751141</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1949.14065540757</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.372000137456</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.906241876376</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782189</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.4813941485145</v>
+        <v>506.0980231475335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1714.263756178945</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1105.408603850877</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>719.6203512526331</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>308.6344464630255</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1714.263756178945</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1714.263756178945</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1714.263756178945</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2708856551155</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2708856551155</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2708856551155</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>184.2708856551155</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.823100673951</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C8" t="n">
-        <v>1584.823100673951</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.5574020672</v>
+        <v>1264.912517821976</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>879.1242652237315</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>468.138360434124</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2159.291999533505</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="C10" t="n">
-        <v>2159.291999533505</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>2159.291999533505</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>2159.291999533505</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>2469.159540120205</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>2340.940464363744</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5124,10 +5124,10 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.161514522856</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C13" t="n">
-        <v>399.161514522856</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>249.0448751105203</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663861</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X13" t="n">
-        <v>619.9540936663861</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.161514522856</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>846.9127704725951</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>731.3351829786183</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507114</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1436.823077953919</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="W16" t="n">
-        <v>912.983647808858</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X16" t="n">
-        <v>912.983647808858</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y16" t="n">
-        <v>912.983647808858</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.7268833816379</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>427.7268833816379</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>427.7268833816379</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>427.7268833816379</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925217</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488382</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>609.3753482118776</v>
+        <v>1008.977584262316</v>
       </c>
       <c r="X19" t="n">
-        <v>609.3753482118776</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y19" t="n">
-        <v>609.3753482118776</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,16 +5750,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861031</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1366.494364606689</v>
+        <v>1275.436841221466</v>
       </c>
       <c r="U22" t="n">
-        <v>1077.365725820247</v>
+        <v>1275.436841221466</v>
       </c>
       <c r="V22" t="n">
-        <v>822.6812376143602</v>
+        <v>1020.752353015579</v>
       </c>
       <c r="W22" t="n">
-        <v>822.6812376143602</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="X22" t="n">
-        <v>594.6916867163428</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.6916867163428</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="23">
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123425</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123425</v>
+        <v>929.4878141548603</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123425</v>
+        <v>779.3711747425245</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123425</v>
+        <v>631.4580811601314</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>484.568133662221</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>316.3928119820417</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>165.974803529985</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>904.7606320919992</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>650.0761438861124</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>650.0761438861124</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X25" t="n">
-        <v>650.0761438861124</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y25" t="n">
-        <v>429.2835647425823</v>
+        <v>1098.423997082767</v>
       </c>
     </row>
     <row r="26">
@@ -6306,25 +6306,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>474.7746905116418</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>721.5398184181058</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1028.859951698067</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>638.8778922268339</v>
+        <v>653.8460027287435</v>
       </c>
       <c r="C28" t="n">
-        <v>638.8778922268339</v>
+        <v>484.9098198008367</v>
       </c>
       <c r="D28" t="n">
-        <v>638.8778922268339</v>
+        <v>334.793180388501</v>
       </c>
       <c r="E28" t="n">
-        <v>490.9647986444407</v>
+        <v>334.793180388501</v>
       </c>
       <c r="F28" t="n">
-        <v>344.0748511465304</v>
+        <v>187.9032328905907</v>
       </c>
       <c r="G28" t="n">
-        <v>175.8995294663509</v>
+        <v>187.9032328905907</v>
       </c>
       <c r="H28" t="n">
-        <v>175.8995294663509</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570736</v>
+        <v>874.6385818722736</v>
       </c>
       <c r="X28" t="n">
-        <v>820.5263570570736</v>
+        <v>874.6385818722736</v>
       </c>
       <c r="Y28" t="n">
-        <v>820.5263570570736</v>
+        <v>653.8460027287435</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,64 +6446,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542201</v>
+        <v>543.3437276440242</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076841</v>
+        <v>543.3437276440242</v>
       </c>
       <c r="D31" t="n">
-        <v>232.0013381767193</v>
+        <v>543.3437276440242</v>
       </c>
       <c r="E31" t="n">
-        <v>232.0013381767193</v>
+        <v>451.1914993430018</v>
       </c>
       <c r="F31" t="n">
-        <v>140.8722559601798</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933505</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818951</v>
+        <v>1006.491726671699</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652487</v>
+        <v>834.2630410550524</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030889</v>
+        <v>669.2313271928931</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6683,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>452.0983189327497</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>698.8634468392138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1006.183580119176</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,22 +6947,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,7 +7333,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>159.1396882805848</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>570.0299571250974</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7786,10 +7786,10 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,22 +7819,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,13 +8772,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>52.4973336130526</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>5.100663089359614</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>381.3739760657751</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.8856946302409</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>285.1031356539327</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>165.9802687929762</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.23759968302093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>50.6266194094361</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>20.63789864135489</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>297.2466435761031</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>78.33112907406473</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>141.5455048557683</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>224.7650917206342</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>190.6078641972177</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.6237508517063</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>285.6418612861414</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>200.4142265704814</v>
+        <v>0.3029260153174675</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>42.34911051526981</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>117.4916413593259</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>59.13454835153425</v>
       </c>
       <c r="I28" t="n">
-        <v>32.5236318382676</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.07169897992509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571479</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>102.773184712908</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>991830.5252751358</v>
+        <v>991830.5252751355</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>991830.5252751355</v>
+        <v>991830.5252751356</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>991830.5252751355</v>
+        <v>991830.5252751358</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>991830.5252751356</v>
+        <v>991830.5252751358</v>
       </c>
     </row>
     <row r="11">
@@ -26320,40 +26320,40 @@
         <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
+        <v>391029.0597377088</v>
+      </c>
+      <c r="F2" t="n">
+        <v>391029.0597377087</v>
+      </c>
+      <c r="G2" t="n">
         <v>391029.0597377089</v>
-      </c>
-      <c r="F2" t="n">
-        <v>391029.0597377088</v>
-      </c>
-      <c r="G2" t="n">
-        <v>391029.0597377088</v>
       </c>
       <c r="H2" t="n">
         <v>391029.0597377088</v>
       </c>
       <c r="I2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="J2" t="n">
         <v>391029.0597377088</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452707</v>
+        <v>406822.1373452705</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321422</v>
       </c>
       <c r="M2" t="n">
+        <v>410520.8849321421</v>
+      </c>
+      <c r="N2" t="n">
         <v>410520.8849321422</v>
       </c>
-      <c r="N2" t="n">
-        <v>410520.8849321423</v>
-      </c>
       <c r="O2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321421</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.66962143911</v>
@@ -26433,25 +26433,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563567</v>
+        <v>33210.29213563568</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-419081.030597035</v>
       </c>
       <c r="C6" t="n">
-        <v>170886.8486175095</v>
+        <v>170886.8486175096</v>
       </c>
       <c r="D6" t="n">
         <v>170886.8486175094</v>
       </c>
       <c r="E6" t="n">
-        <v>-241163.9723093429</v>
+        <v>-241261.4314353151</v>
       </c>
       <c r="F6" t="n">
-        <v>283996.064167553</v>
+        <v>283898.6050415808</v>
       </c>
       <c r="G6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.605041581</v>
       </c>
       <c r="H6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.6050415809</v>
       </c>
       <c r="I6" t="n">
-        <v>283996.0641675532</v>
+        <v>283898.6050415809</v>
       </c>
       <c r="J6" t="n">
-        <v>107572.8449749601</v>
+        <v>107475.385848988</v>
       </c>
       <c r="K6" t="n">
-        <v>232821.0313765664</v>
+        <v>232802.5376386321</v>
       </c>
       <c r="L6" t="n">
-        <v>264998.4154484905</v>
+        <v>264998.4154484903</v>
       </c>
       <c r="M6" t="n">
-        <v>140540.3070155202</v>
+        <v>140540.3070155199</v>
       </c>
       <c r="N6" t="n">
-        <v>275341.3222493574</v>
+        <v>275341.3222493571</v>
       </c>
       <c r="O6" t="n">
-        <v>275341.3222493573</v>
+        <v>275341.3222493571</v>
       </c>
       <c r="P6" t="n">
-        <v>231178.7169465115</v>
+        <v>231178.7169465114</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26762,16 +26762,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>272.7477579094901</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>12.86378753284993</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>213.1364147738238</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.6618280996875</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>161.6396200245605</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>184.0550285887353</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>5.940996995934682</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>365.6250825547579</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>327.6535179575303</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>12.42385312965709</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>91.64776835319903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29335,10 +29335,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35492,13 +35492,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>385.6919070110654</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>315.5250401398259</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>691.7983531162413</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>339.4611332181801</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
@@ -36692,10 +36692,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>534.360840609957</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>316.5557073809155</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>179.2506324680951</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>299.8843243654604</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.54807759626155</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>579.6103458172112</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
